--- a/devel/Sample_types.xlsx
+++ b/devel/Sample_types.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,45 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Mar Fernández-Méndez</author>
-  </authors>
-  <commentList>
-    <comment ref="A29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Mar Fernández-Méndez:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Shouldnt be here</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
-  <si>
-    <t>Explanation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>AMM</t>
   </si>
@@ -174,12 +137,6 @@
     <t>Mycosporine-like aminoacids</t>
   </si>
   <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>N2O/CH4/CO2</t>
-  </si>
-  <si>
     <t>NUT</t>
   </si>
   <si>
@@ -204,30 +161,12 @@
     <t>Phytoplankton taxonomy</t>
   </si>
   <si>
-    <t>Prok0p22</t>
-  </si>
-  <si>
-    <t>Prok0p45</t>
-  </si>
-  <si>
     <t>SAL</t>
   </si>
   <si>
     <t>Salinity</t>
   </si>
   <si>
-    <t>SIL</t>
-  </si>
-  <si>
-    <t>Silicate</t>
-  </si>
-  <si>
-    <t>SII</t>
-  </si>
-  <si>
-    <t>Silicon isotopes</t>
-  </si>
-  <si>
     <t>ZOT</t>
   </si>
   <si>
@@ -240,53 +179,41 @@
     <t>Zooplankton physiology</t>
   </si>
   <si>
-    <t>OXI</t>
-  </si>
-  <si>
     <t>δ18 Oxygen</t>
   </si>
   <si>
-    <t>FCF</t>
-  </si>
-  <si>
     <t>SWN</t>
   </si>
   <si>
     <t>Zooplankton taxonomy; swim-net</t>
   </si>
   <si>
-    <t>URA</t>
-  </si>
-  <si>
-    <t>Uranium</t>
-  </si>
-  <si>
     <t>HAN</t>
   </si>
   <si>
     <t>Handnet 20 µm</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Scavenger taxonomy</t>
   </si>
   <si>
     <t>SCT</t>
   </si>
   <si>
-    <t>Prokaryote genomics 0.22 µm</t>
-  </si>
-  <si>
-    <t>Prokaryote genomics 0.45 µm</t>
+    <t>code</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>OXY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,26 +243,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -357,14 +264,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,11 +550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,308 +562,252 @@
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -965,6 +815,5 @@
     <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/devel/Sample_types.xlsx
+++ b/devel/Sample_types.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikko\Dropbox\Workstuff\R\R packages\MarineDatabase\devel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anette\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13128"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -170,9 +170,6 @@
     <t>ZOT</t>
   </si>
   <si>
-    <t>Zooplankton taxonomy</t>
-  </si>
-  <si>
     <t>ZOP</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>OXY</t>
+  </si>
+  <si>
+    <t>Mesozooplankton taxonomy</t>
   </si>
 </sst>
 </file>
@@ -553,24 +553,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -618,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -642,7 +642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -650,7 +650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -658,7 +658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -666,15 +666,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -682,7 +682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -698,7 +698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -706,7 +706,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -722,7 +722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -730,7 +730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -738,15 +738,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -754,7 +754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -762,7 +762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -770,7 +770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
@@ -778,36 +778,36 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
